--- a/test1.xlsx
+++ b/test1.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="3780" windowWidth="28800" windowHeight="12340" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="680" yWindow="2920" windowWidth="28800" windowHeight="12340" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Список" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="18-04-2022" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="19-04-2022" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20-04-2022" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1"/>
@@ -2408,7 +2409,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2503,4 +2504,107 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Номер</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Класс</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Лимит</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Посещение</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Время</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Бобровский-Ленин Тимофей Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5-А</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20:39:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>123457</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Вдовенко Егор Александрович</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5-А</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20:40:10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/test1.xlsx
+++ b/test1.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="680" yWindow="2920" windowWidth="28800" windowHeight="12340" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="680" yWindow="2920" windowWidth="28800" windowHeight="12340" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Список" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="18-04-2022" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="19-04-2022" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="20-04-2022" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="22-04-2022" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="02-06-2022" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1"/>
@@ -2408,7 +2410,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -2518,7 +2520,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -2601,6 +2603,134 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>20:40:10</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Номер</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Класс</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Лимит</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Посещение</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Время</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Номер</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Класс</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Лимит</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Посещение</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Время</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Бобровский-Ленин Тимофей Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5-А</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11:54:14</t>
         </is>
       </c>
     </row>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolajirtuganov/PycharmProjects/ege programs/qr_reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A6172B-525D-B145-944B-ECFA536CC0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B9BE02-3719-8542-A8FC-939CC32555B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="2920" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20120" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Список" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="22-04-2022" sheetId="5" r:id="rId5"/>
     <sheet name="02-06-2022" sheetId="6" r:id="rId6"/>
     <sheet name="2022-06-02" sheetId="7" r:id="rId7"/>
+    <sheet name="2022-06-07" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
   <si>
     <t>Номер</t>
   </si>
@@ -40,13 +41,22 @@
     <t>Лимит</t>
   </si>
   <si>
+    <t>Фото</t>
+  </si>
+  <si>
     <t>Бобровский-Ленин Тимофей Дмитриевич</t>
   </si>
   <si>
     <t>5-А</t>
   </si>
   <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/spotify-e1829.appspot.com/o/original.png?alt=media&amp;token=e9a72449-6391-4fc3-a3ac-594d14afc075</t>
+  </si>
+  <si>
     <t>Вдовенко Егор Александрович</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/spotify-e1829.appspot.com/o/test_jpg.JPG?alt=media&amp;token=517af217-aae8-4fbd-88bd-27fce6a79617</t>
   </si>
   <si>
     <t>Посещение</t>
@@ -69,12 +79,18 @@
   <si>
     <t>13:52:59</t>
   </si>
+  <si>
+    <t>12:43:55</t>
+  </si>
+  <si>
+    <t>12:43:42</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +110,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,11 +153,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -140,8 +166,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -455,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,9 +495,10 @@
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,96 +511,105 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>123456</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>123457</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2302,6 +2340,10 @@
       <c r="C361" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2333,7 +2375,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2341,10 +2383,10 @@
         <v>123456</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2390,10 +2432,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2401,10 +2443,10 @@
         <v>123456</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2413,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2421,10 +2463,10 @@
         <v>123457</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2460,10 +2502,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2471,10 +2513,10 @@
         <v>123456</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2483,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2491,10 +2533,10 @@
         <v>123457</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2503,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2533,10 +2575,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2571,10 +2613,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2629,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2609,10 +2651,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2620,10 +2662,10 @@
         <v>123456</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -2632,7 +2674,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2640,10 +2682,10 @@
         <v>123457</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2652,7 +2694,94 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="127.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>123456</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>123457</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolajirtuganov/PycharmProjects/ege programs/qr_reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B9BE02-3719-8542-A8FC-939CC32555B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768CF98-4967-5E41-9D02-317699465A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20120" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,10 +80,10 @@
     <t>13:52:59</t>
   </si>
   <si>
-    <t>12:43:55</t>
+    <t>13:14:15</t>
   </si>
   <si>
-    <t>12:43:42</t>
+    <t>13:13:52</t>
   </si>
 </sst>
 </file>
@@ -2629,7 +2629,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2707,13 +2707,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="127.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolajirtuganov/PycharmProjects/ege programs/qr_reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768CF98-4967-5E41-9D02-317699465A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7B4DB2-A4BC-0542-AF69-E2B53C6F9DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20120" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37740" yWindow="1480" windowWidth="35840" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Список" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,16 @@
     <sheet name="22-04-2022" sheetId="5" r:id="rId5"/>
     <sheet name="02-06-2022" sheetId="6" r:id="rId6"/>
     <sheet name="2022-06-02" sheetId="7" r:id="rId7"/>
-    <sheet name="2022-06-07" sheetId="8" r:id="rId8"/>
+    <sheet name="Лист1" sheetId="8" r:id="rId8"/>
+    <sheet name="2022-06-07" sheetId="9" r:id="rId9"/>
+    <sheet name="2022-06-08" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="21">
   <si>
     <t>Номер</t>
   </si>
@@ -84,6 +86,12 @@
   </si>
   <si>
     <t>13:13:52</t>
+  </si>
+  <si>
+    <t>13:11:58</t>
+  </si>
+  <si>
+    <t>13:12:06</t>
   </si>
 </sst>
 </file>
@@ -485,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,6 +566,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -2345,6 +2354,93 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="127.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>123457</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>123456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2704,13 +2800,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="127.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2771,7 +2884,7 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3">
@@ -2782,6 +2895,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolajirtuganov/PycharmProjects/ege programs/qr_reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7B4DB2-A4BC-0542-AF69-E2B53C6F9DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB802947-EECA-F84D-A9AE-8D36B9272E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37740" yWindow="1480" windowWidth="35840" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20120" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Список" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="Лист1" sheetId="8" r:id="rId8"/>
     <sheet name="2022-06-07" sheetId="9" r:id="rId9"/>
     <sheet name="2022-06-08" sheetId="10" r:id="rId10"/>
+    <sheet name="2022-06-14" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="23">
   <si>
     <t>Номер</t>
   </si>
@@ -92,6 +93,12 @@
   </si>
   <si>
     <t>13:12:06</t>
+  </si>
+  <si>
+    <t>10:43:28;10:53:16;10:53:32</t>
+  </si>
+  <si>
+    <t>10:54:42</t>
   </si>
 </sst>
 </file>
@@ -493,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2437,6 +2444,93 @@
       </c>
       <c r="G3" t="s">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>123456</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>123457</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
